--- a/documentos/Riscos.xlsx
+++ b/documentos/Riscos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4D361C20488DEA4E38A0F8845D72945ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E9AD21-12DF-45B0-8CF5-EF0FA725A6A7}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_AD4D361C20488DEA4E38A0F8845D72945ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{576A75FF-9F38-440E-8093-1F8126E0C8FF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint2" sheetId="1" r:id="rId1"/>
@@ -778,22 +778,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -912,7 +912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -936,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -960,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
